--- a/inst/extdata/CopyOfData/usaFiberPulpCG.xlsx
+++ b/inst/extdata/CopyOfData/usaFiberPulpCG.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjones/Desktop/woodcarb/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24816"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="26280" windowHeight="12740" tabRatio="500"/>
+    <workbookView xWindow="800" yWindow="420" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +18,105 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>kskog</author>
+  </authors>
+  <commentList>
+    <comment ref="G5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>kskog:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+from AF&amp;PA Paper, paperboard &amp; wood pulp, A Monthly statistical summary</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>kskog:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Import and export values submitted by James Howard to ECE/FAO for 2007 from ITC database (rounded to nearest 1000)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>metric tons</t>
+  </si>
+  <si>
+    <t>http://faostat.fao.org/DesktopDefault.aspx?PageID=381&amp;lang=en</t>
+  </si>
+  <si>
+    <t>Recovered Fibre Pulp | United States of America</t>
+  </si>
+  <si>
+    <t>↑→</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Production Quantity</t>
+  </si>
+  <si>
+    <t>Imports Quantity</t>
+  </si>
+  <si>
+    <t>Exports Quantity</t>
+  </si>
+  <si>
+    <t>Imports (tons)</t>
+  </si>
+  <si>
+    <t>Imports (metric tons)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -33,16 +124,106 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="62"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="17"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="62"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="62"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="63"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,14 +231,219 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top style="medium">
+        <color indexed="22"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="22"/>
+      </left>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top style="medium">
+        <color indexed="22"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="22"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="22"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="22"/>
+      </left>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top style="medium">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="22"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="22"/>
+      </left>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="22"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -113,7 +499,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -148,7 +534,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,193 +711,324 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:C16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1">
+    <row r="1" spans="1:8">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="21" thickBot="1">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16" thickBot="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="9">
+        <v>1998</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11">
         <v>44000</v>
       </c>
-      <c r="C1">
+      <c r="E6" s="12">
         <v>46000</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2">
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" ht="16" thickBot="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="9">
+        <v>1999</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11">
         <v>34000</v>
       </c>
-      <c r="C2">
+      <c r="E7" s="12">
         <v>36000</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" ht="16" thickBot="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="9">
+        <v>2000</v>
+      </c>
+      <c r="C8" s="11">
         <v>30000</v>
       </c>
-      <c r="B3">
+      <c r="D8" s="11">
         <v>27000</v>
       </c>
-      <c r="C3">
+      <c r="E8" s="12">
         <v>53000</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" ht="16" thickBot="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="9">
+        <v>2001</v>
+      </c>
+      <c r="C9" s="11">
         <v>30000</v>
       </c>
-      <c r="B4">
+      <c r="D9" s="11">
         <v>19156</v>
       </c>
-      <c r="C4">
+      <c r="E9" s="12">
         <v>18306</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" ht="16" thickBot="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="9">
+        <v>2002</v>
+      </c>
+      <c r="C10" s="11">
         <v>30000</v>
       </c>
-      <c r="B5">
+      <c r="D10" s="11">
         <v>3868</v>
       </c>
-      <c r="C5">
+      <c r="E10" s="12">
         <v>21798</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="16" thickBot="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="9">
+        <v>2003</v>
+      </c>
+      <c r="C11" s="11">
         <v>30000</v>
       </c>
-      <c r="B6">
+      <c r="D11" s="11">
         <v>3631</v>
       </c>
-      <c r="C6">
+      <c r="E11" s="12">
         <v>45322</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="16" thickBot="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="9">
+        <v>2004</v>
+      </c>
+      <c r="C12" s="11">
         <v>30000</v>
       </c>
-      <c r="B7">
+      <c r="D12" s="11">
         <v>3071</v>
       </c>
-      <c r="C7">
+      <c r="E12" s="12">
         <v>39000</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="16" thickBot="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="9">
+        <v>2005</v>
+      </c>
+      <c r="C13" s="14">
         <v>30000</v>
       </c>
-      <c r="B8">
+      <c r="D13" s="14">
         <v>1818</v>
       </c>
-      <c r="C8">
+      <c r="E13" s="15">
         <v>40000</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" ht="16" thickBot="1">
+      <c r="B14" s="9">
+        <v>2006</v>
+      </c>
+      <c r="C14" s="14">
         <v>30000</v>
       </c>
-      <c r="B9">
+      <c r="D14" s="16">
         <v>1643</v>
       </c>
-      <c r="C9">
+      <c r="E14" s="17">
         <v>29508</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" ht="16" thickBot="1">
+      <c r="B15" s="9">
+        <v>2007</v>
+      </c>
+      <c r="C15" s="19">
         <v>30000</v>
       </c>
-      <c r="B10">
+      <c r="D15" s="20">
         <v>7720</v>
       </c>
-      <c r="C10">
+      <c r="E15" s="21">
         <v>28452</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" ht="16" thickBot="1">
+      <c r="B16" s="23">
+        <v>2008</v>
+      </c>
+      <c r="C16" s="19">
         <v>30000</v>
       </c>
-      <c r="B11">
+      <c r="D16" s="16">
         <v>13000</v>
       </c>
-      <c r="C11">
+      <c r="E16" s="17">
         <v>28000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="17" spans="2:5">
+      <c r="B17" s="23">
+        <v>2009</v>
+      </c>
+      <c r="C17" s="19">
         <v>100000</v>
       </c>
-      <c r="B12">
+      <c r="D17" s="16">
         <v>1136</v>
       </c>
-      <c r="C12">
+      <c r="E17" s="17">
         <v>75010</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="18" spans="2:5">
+      <c r="B18" s="23">
+        <v>2010</v>
+      </c>
+      <c r="C18" s="24">
         <v>130000</v>
       </c>
-      <c r="B13">
+      <c r="D18" s="16">
         <v>9739</v>
       </c>
-      <c r="C13">
+      <c r="E18" s="17">
         <v>101350</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="19" spans="2:5">
+      <c r="B19" s="23">
+        <v>2011</v>
+      </c>
+      <c r="C19" s="24">
         <v>50000</v>
       </c>
-      <c r="B14">
+      <c r="D19" s="16">
         <v>19522</v>
       </c>
-      <c r="C14">
+      <c r="E19" s="17">
         <v>67877</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="20" spans="2:5">
+      <c r="B20" s="23">
+        <v>2012</v>
+      </c>
+      <c r="C20" s="24">
         <v>50000</v>
       </c>
-      <c r="B15">
+      <c r="D20" s="16">
         <v>13825</v>
       </c>
-      <c r="C15">
+      <c r="E20" s="17">
         <v>111434</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="21" spans="2:5">
+      <c r="B21" s="23">
+        <v>2013</v>
+      </c>
+      <c r="C21" s="24">
         <v>50000</v>
       </c>
-      <c r="B16">
+      <c r="D21" s="24">
         <v>9300</v>
       </c>
-      <c r="C16">
+      <c r="E21" s="25">
         <v>113000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A5:A13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="javascript:__doPostBack('ctl03$DesktopThreePanes1$ThreePanes$ctl01$FSdimChange','')"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>